--- a/va_facility_data_2025-02-20/Washington County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Washington%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Washington County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Washington%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R84ae867784844671b961739670624ed3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2963b76d959c49bfb6d59094212ef362"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re9c633523f524300a48562b1d6b9a099"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R781119e524d34c06b3b58e665fed70e9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1843c46d76d74e75bc9331fcc7adf525"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra9b0a631d60f46c0ac180f6adbccee22"/>
   </x:sheets>
 </x:workbook>
 </file>
